--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998652.622706898</v>
+        <v>1996317.511504918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.716484317873</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431398</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>193.5534233013595</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267056</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>104.3047449110153</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -947,16 +947,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358563</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>85.87308903366298</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>59.90320919298873</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>85.89092205733071</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>80.08971311159162</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507394</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101241</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>148.8796904206634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>18.708437879774</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583142</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703221</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>861.3216348137582</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>918.7469765594642</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>918.7469765594642</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>918.7469765594642</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X4" t="n">
-        <v>918.7469765594642</v>
+        <v>530.7089073188006</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>530.7089073188006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862503</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>1176.100419978354</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.812065315341</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>938.0238127170967</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0379079274892</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4650,7 +4650,7 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
         <v>1295.75982926932</v>
@@ -4659,10 +4659,10 @@
         <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151.298377994912</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3238.865327635775</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3238.865327635775</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2985.334850909611</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2654.27196356604</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2301.503308295926</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.037550034846</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.898218059034</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3164745246301</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>701.3802915967232</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>551.2636521843874</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>551.2636521843874</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>404.373704686477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.96493935487</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836059</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>565.709996955699</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138456</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138456</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W19" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438164</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998423</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>194.80077839983</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>194.80077839983</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>194.80077839983</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121598</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121598</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121598</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.3355197601775</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>79.63321623493813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.52575990662073</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788847</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>68.52575990662487</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124948</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092999</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219467</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846787</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="16">
@@ -26323,16 +26323,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
@@ -26344,16 +26344,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.177809982</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26439,13 +26439,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756617</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675657</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26454,7 +26454,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.5908028681</v>
+        <v>-769686.5908028684</v>
       </c>
       <c r="C6" t="n">
         <v>345065.1927730512</v>
       </c>
       <c r="D6" t="n">
-        <v>185643.9227751593</v>
+        <v>185643.9227751595</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.4277949855</v>
+        <v>129095.68986955</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.151676905</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.8896023406</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="J6" t="n">
-        <v>286937.7117923588</v>
+        <v>286902.9738669225</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="L6" t="n">
-        <v>406248.91959415</v>
+        <v>406214.1816687144</v>
       </c>
       <c r="M6" t="n">
-        <v>369487.8616668292</v>
+        <v>369453.1237413931</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.889602341</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023406</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.8896023407</v>
+        <v>454508.1516769051</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>82.15956142383845</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.0865537016644</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>92.67373081984115</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397735</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>307.2429578619386</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762424</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.31467275451286</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>88.71226382522363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980277</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060496</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.133804440247</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
